--- a/数据.xlsx
+++ b/数据.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="21600" windowHeight="10730"/>
   </bookViews>
   <sheets>
-    <sheet name="第一篇文章数据330个" sheetId="1" r:id="rId1"/>
+    <sheet name="源数据330个" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1975,10 +1975,10 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="32.1111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7818181818182" style="1" customWidth="1"/>
     <col min="3" max="6" width="10" style="1"/>
   </cols>
   <sheetData>
